--- a/統計管制與最佳化方法概論/homework/考古作業/HW8/HW8.xlsx
+++ b/統計管制與最佳化方法概論/homework/考古作業/HW8/HW8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\NTU碩士\修課\Statistical Control and Optimization\HW\HW8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\考古作業\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F834F-BDB6-4C56-B4C4-2CD8E2B76694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-i" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,19 @@
     <sheet name="2-i&amp;ii" sheetId="6" r:id="rId5"/>
     <sheet name="2-iii" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -303,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,7 +535,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1187,7 +1197,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCDA-499D-820F-39A01E3464C7}"/>
             </c:ext>
@@ -1835,7 +1845,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BCDA-499D-820F-39A01E3464C7}"/>
             </c:ext>
@@ -2509,7 +2519,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BCDA-499D-820F-39A01E3464C7}"/>
             </c:ext>
@@ -3163,7 +3173,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BCDA-499D-820F-39A01E3464C7}"/>
             </c:ext>
@@ -3814,7 +3824,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BCDA-499D-820F-39A01E3464C7}"/>
             </c:ext>
@@ -3950,7 +3960,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4018,7 +4027,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4682,6 +4691,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6094-4566-9117-534697427A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5328,6 +5342,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6094-4566-9117-534697427A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5986,6 +6005,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6094-4566-9117-534697427A41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6116,7 +6140,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6184,7 +6207,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -6224,7 +6247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6915,6 +6937,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E49D-44A8-B88A-BF0B57864990}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7561,6 +7588,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E49D-44A8-B88A-BF0B57864990}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8209,6 +8241,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E49D-44A8-B88A-BF0B57864990}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8341,7 +8378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8409,7 +8445,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8449,7 +8485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9130,6 +9165,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DA9-4EC7-BA56-69C4BF7626BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9778,6 +9818,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DA9-4EC7-BA56-69C4BF7626BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10434,6 +10479,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DA9-4EC7-BA56-69C4BF7626BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10565,7 +10615,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10633,7 +10682,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -10677,7 +10726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11358,6 +11406,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60B3-43C3-9B34-476210E8867C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12006,6 +12059,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60B3-43C3-9B34-476210E8867C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -12662,6 +12720,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60B3-43C3-9B34-476210E8867C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12793,7 +12856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15644,7 +15706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15682,7 +15750,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15720,7 +15794,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15758,7 +15838,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15796,7 +15882,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15826,7 +15918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7"/>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -15875,7 +15973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -15919,7 +16023,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15954,7 +16064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -15998,7 +16114,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16028,7 +16150,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16063,7 +16191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -16107,7 +16241,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16387,19 +16527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:F103"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16451,7 +16591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>60.516199999999998</v>
       </c>
@@ -16515,7 +16655,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>61.106900000000003</v>
       </c>
@@ -16581,7 +16721,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>60.427300000000002</v>
       </c>
@@ -16647,7 +16787,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>60.457299999999996</v>
       </c>
@@ -16712,7 +16852,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>61.0794</v>
       </c>
@@ -16778,7 +16918,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>60.7286</v>
       </c>
@@ -16844,7 +16984,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>60.170299999999997</v>
       </c>
@@ -16910,7 +17050,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>60.516500000000001</v>
       </c>
@@ -16975,7 +17115,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>60.283299999999997</v>
       </c>
@@ -17041,7 +17181,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>60.223100000000002</v>
       </c>
@@ -17100,7 +17240,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>60.607799999999997</v>
       </c>
@@ -17159,7 +17299,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>60.058399999999999</v>
       </c>
@@ -17221,7 +17361,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>60.370199999999997</v>
       </c>
@@ -17286,7 +17426,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>60.770899999999997</v>
       </c>
@@ -17351,7 +17491,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>60.221299999999999</v>
       </c>
@@ -17416,7 +17556,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>60.133099999999999</v>
       </c>
@@ -17481,7 +17621,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>60.824399999999997</v>
       </c>
@@ -17546,7 +17686,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>60.594999999999999</v>
       </c>
@@ -17611,7 +17751,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>60.151899999999998</v>
       </c>
@@ -17676,7 +17816,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>60.732599999999998</v>
       </c>
@@ -17735,7 +17875,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>60.444200000000002</v>
       </c>
@@ -17794,7 +17934,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>60.558</v>
       </c>
@@ -17853,7 +17993,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>60.545200000000001</v>
       </c>
@@ -17912,7 +18052,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>60.181199999999997</v>
       </c>
@@ -17977,7 +18117,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>60.465600000000002</v>
       </c>
@@ -18043,7 +18183,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>60.217100000000002</v>
       </c>
@@ -18109,7 +18249,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>60.679000000000002</v>
       </c>
@@ -18168,7 +18308,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>60.285600000000002</v>
       </c>
@@ -18227,7 +18367,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>60.128700000000002</v>
       </c>
@@ -18286,7 +18426,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>60.330100000000002</v>
       </c>
@@ -18345,7 +18485,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>60.087899999999998</v>
       </c>
@@ -18404,7 +18544,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>60.072699999999998</v>
       </c>
@@ -18463,7 +18603,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>60.497999999999998</v>
       </c>
@@ -18522,7 +18662,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>59.4544</v>
       </c>
@@ -18581,7 +18721,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>60.113900000000001</v>
       </c>
@@ -18640,7 +18780,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>60.521999999999998</v>
       </c>
@@ -18699,7 +18839,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>59.7652</v>
       </c>
@@ -18758,7 +18898,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>59.966500000000003</v>
       </c>
@@ -18817,7 +18957,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>60.314999999999998</v>
       </c>
@@ -18876,7 +19016,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>60.215200000000003</v>
       </c>
@@ -18935,7 +19075,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>59.998199999999997</v>
       </c>
@@ -18994,7 +19134,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>60.529699999999998</v>
       </c>
@@ -19053,7 +19193,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>60.143999999999998</v>
       </c>
@@ -19112,7 +19252,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>60.122</v>
       </c>
@@ -19171,7 +19311,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>60.464700000000001</v>
       </c>
@@ -19230,7 +19370,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>59.918100000000003</v>
       </c>
@@ -19289,7 +19429,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>60.130099999999999</v>
       </c>
@@ -19348,7 +19488,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>60.561199999999999</v>
       </c>
@@ -19407,7 +19547,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>59.908999999999999</v>
       </c>
@@ -19466,7 +19606,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>59.9923</v>
       </c>
@@ -19525,7 +19665,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>61.104300000000002</v>
       </c>
@@ -19584,7 +19724,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>60.229500000000002</v>
       </c>
@@ -19643,7 +19783,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>60.7804</v>
       </c>
@@ -19702,7 +19842,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>60.75</v>
       </c>
@@ -19761,7 +19901,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>60.455100000000002</v>
       </c>
@@ -19820,7 +19960,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>60.319499999999998</v>
       </c>
@@ -19879,7 +20019,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>60.967300000000002</v>
       </c>
@@ -19938,7 +20078,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>59.925699999999999</v>
       </c>
@@ -19997,7 +20137,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>60.1783</v>
       </c>
@@ -20056,7 +20196,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>60.287500000000001</v>
       </c>
@@ -20115,7 +20255,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>60.490400000000001</v>
       </c>
@@ -20174,7 +20314,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>60.032499999999999</v>
       </c>
@@ -20233,7 +20373,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>60.883099999999999</v>
       </c>
@@ -20268,7 +20408,7 @@
         <v>6.435953150538154E-2</v>
       </c>
       <c r="P64">
-        <f t="shared" si="6"/>
+        <f>IF(O64&gt;0,P63+1,0)</f>
         <v>1</v>
       </c>
       <c r="Q64">
@@ -20292,7 +20432,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>60.052599999999998</v>
       </c>
@@ -20351,7 +20491,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>60.418399999999998</v>
       </c>
@@ -20410,7 +20550,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>60.515500000000003</v>
       </c>
@@ -20469,7 +20609,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>60.355499999999999</v>
       </c>
@@ -20528,7 +20668,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>60.051200000000001</v>
       </c>
@@ -20587,7 +20727,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>60.924799999999998</v>
       </c>
@@ -20646,7 +20786,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>60.238999999999997</v>
       </c>
@@ -20705,7 +20845,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>60.445599999999999</v>
       </c>
@@ -20764,7 +20904,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>60.672699999999999</v>
       </c>
@@ -20823,7 +20963,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>60.507199999999997</v>
       </c>
@@ -20882,7 +21022,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>60.276200000000003</v>
       </c>
@@ -20941,7 +21081,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>60.950800000000001</v>
       </c>
@@ -21000,7 +21140,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>59.8491</v>
       </c>
@@ -21059,7 +21199,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>60.2239</v>
       </c>
@@ -21118,7 +21258,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>59.994</v>
       </c>
@@ -21177,7 +21317,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>59.561199999999999</v>
       </c>
@@ -21236,7 +21376,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>60.369599999999998</v>
       </c>
@@ -21295,7 +21435,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>59.7699</v>
       </c>
@@ -21354,7 +21494,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>59.753599999999999</v>
       </c>
@@ -21413,7 +21553,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>60.059199999999997</v>
       </c>
@@ -21472,7 +21612,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>60.0366</v>
       </c>
@@ -21531,7 +21671,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>59.5807</v>
       </c>
@@ -21590,7 +21730,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>60.575299999999999</v>
       </c>
@@ -21649,7 +21789,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>59.881500000000003</v>
       </c>
@@ -21708,7 +21848,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>60.077500000000001</v>
       </c>
@@ -21767,7 +21907,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>60.087499999999999</v>
       </c>
@@ -21826,7 +21966,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>59.746299999999998</v>
       </c>
@@ -21885,7 +22025,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>59.533200000000001</v>
       </c>
@@ -21944,7 +22084,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>60.306699999999999</v>
       </c>
@@ -22003,7 +22143,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>59.712899999999998</v>
       </c>
@@ -22062,7 +22202,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>59.724400000000003</v>
       </c>
@@ -22121,7 +22261,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>59.965400000000002</v>
       </c>
@@ -22180,7 +22320,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>59.816099999999999</v>
       </c>
@@ -22239,7 +22379,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>59.872900000000001</v>
       </c>
@@ -22298,7 +22438,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>60.4039</v>
       </c>
@@ -22357,7 +22497,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>59.738300000000002</v>
       </c>
@@ -22416,7 +22556,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>59.969299999999997</v>
       </c>
@@ -22475,7 +22615,7 @@
         <v>-1.9220292750657739</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -22504,7 +22644,7 @@
         <v>0.48144433532983555</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -22538,21 +22678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22596,7 +22736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22651,7 +22791,7 @@
         <v>59.341892953607847</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22708,7 +22848,7 @@
         <v>59.291363329035967</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22763,7 +22903,7 @@
         <v>59.260694770177423</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22809,7 +22949,7 @@
         <v>59.24028657591154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22855,7 +22995,7 @@
         <v>59.226137393324848</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22901,7 +23041,7 @@
         <v>59.216103095635944</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22947,7 +23087,7 @@
         <v>59.208887612663268</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22993,7 +23133,7 @@
         <v>59.203651994325163</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23039,7 +23179,7 @@
         <v>59.199829656507639</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23085,7 +23225,7 @@
         <v>59.197027200635844</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23131,7 +23271,7 @@
         <v>59.194966299028486</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23177,7 +23317,7 @@
         <v>59.193447451876629</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23223,7 +23363,7 @@
         <v>59.192326337965227</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23269,7 +23409,7 @@
         <v>59.191497862309035</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23315,7 +23455,7 @@
         <v>59.190885129064014</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23361,7 +23501,7 @@
         <v>59.19043167982435</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23407,7 +23547,7 @@
         <v>59.190095956618308</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23453,7 +23593,7 @@
         <v>59.189847312509109</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23499,7 +23639,7 @@
         <v>59.189663115990797</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23545,7 +23685,7 @@
         <v>59.189526637776837</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23591,7 +23731,7 @@
         <v>59.189425502320148</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23637,7 +23777,7 @@
         <v>59.189350549733852</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23683,7 +23823,7 @@
         <v>59.189294997477873</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23729,7 +23869,7 @@
         <v>59.189253821833844</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23775,7 +23915,7 @@
         <v>59.189223300985411</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23821,7 +23961,7 @@
         <v>59.189200677174021</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23867,7 +24007,7 @@
         <v>59.18918390673042</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23913,7 +24053,7 @@
         <v>59.189171475032417</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23959,7 +24099,7 @@
         <v>59.189162259474529</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24005,7 +24145,7 @@
         <v>59.18915542796428</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -24051,7 +24191,7 @@
         <v>59.189150363719172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -24097,7 +24237,7 @@
         <v>59.189146609541176</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -24143,7 +24283,7 @@
         <v>59.189143826519455</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24189,7 +24329,7 @@
         <v>59.189141763423095</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24235,7 +24375,7 @@
         <v>59.189140234015269</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24281,7 +24421,7 @@
         <v>59.189139100237988</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24327,7 +24467,7 @@
         <v>59.18913825974775</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24373,7 +24513,7 @@
         <v>59.189137636676158</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24419,7 +24559,7 @@
         <v>59.189137174780903</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24465,7 +24605,7 @@
         <v>59.189136832368696</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24511,7 +24651,7 @@
         <v>59.189136578531574</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24557,7 +24697,7 @@
         <v>59.189136390356921</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24603,7 +24743,7 @@
         <v>59.189136250859178</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24649,7 +24789,7 @@
         <v>59.189136147446611</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24695,7 +24835,7 @@
         <v>59.18913607078472</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24741,7 +24881,7 @@
         <v>59.189136013953664</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24787,7 +24927,7 @@
         <v>59.189135971823617</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -24833,7 +24973,7 @@
         <v>59.189135940591733</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -24879,7 +25019,7 @@
         <v>59.189135917438882</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24925,7 +25065,7 @@
         <v>59.18913590027519</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -24971,7 +25111,7 @@
         <v>59.189135887551387</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -25017,7 +25157,7 @@
         <v>59.189135878118961</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -25063,7 +25203,7 @@
         <v>59.18913587112651</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -25109,7 +25249,7 @@
         <v>59.189135865942852</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25155,7 +25295,7 @@
         <v>59.189135862100102</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -25201,7 +25341,7 @@
         <v>59.189135859251394</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -25247,7 +25387,7 @@
         <v>59.189135857139583</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -25293,7 +25433,7 @@
         <v>59.189135855574051</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -25339,7 +25479,7 @@
         <v>59.189135854413493</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -25385,7 +25525,7 @@
         <v>59.189135853553147</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -25431,7 +25571,7 @@
         <v>59.189135852915356</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -25477,7 +25617,7 @@
         <v>59.189135852442547</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -25523,7 +25663,7 @@
         <v>59.189135852092043</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -25569,7 +25709,7 @@
         <v>59.189135851832205</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -25615,7 +25755,7 @@
         <v>59.189135851639584</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -25661,7 +25801,7 @@
         <v>59.189135851496786</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -25707,7 +25847,7 @@
         <v>59.18913585139093</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -25753,7 +25893,7 @@
         <v>59.189135851312457</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -25799,7 +25939,7 @@
         <v>59.189135851254285</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -25845,7 +25985,7 @@
         <v>59.189135851211155</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -25891,7 +26031,7 @@
         <v>59.189135851179188</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -25937,7 +26077,7 @@
         <v>59.189135851155491</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -25983,7 +26123,7 @@
         <v>59.18913585113792</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -26029,7 +26169,7 @@
         <v>59.189135851124895</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -26075,7 +26215,7 @@
         <v>59.189135851115239</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -26121,7 +26261,7 @@
         <v>59.189135851108084</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -26167,7 +26307,7 @@
         <v>59.189135851102776</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -26213,7 +26353,7 @@
         <v>59.18913585109884</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -26259,7 +26399,7 @@
         <v>59.189135851095926</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -26305,7 +26445,7 @@
         <v>59.189135851093766</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -26351,7 +26491,7 @@
         <v>59.189135851092161</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -26397,7 +26537,7 @@
         <v>59.189135851090974</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -26443,7 +26583,7 @@
         <v>59.189135851090093</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -26489,7 +26629,7 @@
         <v>59.189135851089439</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -26535,7 +26675,7 @@
         <v>59.189135851088956</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -26581,7 +26721,7 @@
         <v>59.189135851088601</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -26627,7 +26767,7 @@
         <v>59.189135851088331</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -26673,7 +26813,7 @@
         <v>59.189135851088132</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -26719,7 +26859,7 @@
         <v>59.18913585108799</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -26765,7 +26905,7 @@
         <v>59.189135851087883</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -26811,7 +26951,7 @@
         <v>59.189135851087798</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -26857,7 +26997,7 @@
         <v>59.189135851087741</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -26903,7 +27043,7 @@
         <v>59.189135851087698</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -26949,7 +27089,7 @@
         <v>59.189135851087663</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -26995,7 +27135,7 @@
         <v>59.189135851087642</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -27041,7 +27181,7 @@
         <v>59.18913585108762</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -27087,7 +27227,7 @@
         <v>59.189135851087606</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -27133,7 +27273,7 @@
         <v>59.189135851087599</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -27179,7 +27319,7 @@
         <v>59.189135851087592</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -27225,7 +27365,7 @@
         <v>59.189135851087585</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -27254,7 +27394,7 @@
         <v>0.48144433532983555</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -27287,22 +27427,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27346,7 +27486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27402,7 +27542,7 @@
         <v>59.341892953607847</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27460,7 +27600,7 @@
         <v>59.291363329035967</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27516,7 +27656,7 @@
         <v>59.260694770177423</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27563,7 +27703,7 @@
         <v>59.24028657591154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27610,7 +27750,7 @@
         <v>59.226137393324848</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27657,7 +27797,7 @@
         <v>59.216103095635944</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27704,7 +27844,7 @@
         <v>59.208887612663268</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27751,7 +27891,7 @@
         <v>59.203651994325163</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27801,7 +27941,7 @@
         <v>59.199829656507639</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27854,7 +27994,7 @@
         <v>59.197027200635844</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27907,7 +28047,7 @@
         <v>59.194966299028486</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27961,7 +28101,7 @@
         <v>59.193447451876629</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -28015,7 +28155,7 @@
         <v>59.192326337965227</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -28069,7 +28209,7 @@
         <v>59.191497862309035</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -28122,7 +28262,7 @@
         <v>59.190885129064014</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -28176,7 +28316,7 @@
         <v>59.19043167982435</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -28223,7 +28363,7 @@
         <v>59.190095956618308</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -28270,7 +28410,7 @@
         <v>59.189847312509109</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -28317,7 +28457,7 @@
         <v>59.189663115990797</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -28364,7 +28504,7 @@
         <v>59.189526637776837</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -28414,7 +28554,7 @@
         <v>59.189425502320148</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -28467,7 +28607,7 @@
         <v>59.189350549733852</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -28520,7 +28660,7 @@
         <v>59.189294997477873</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -28573,7 +28713,7 @@
         <v>59.189253821833844</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -28626,7 +28766,7 @@
         <v>59.189223300985411</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -28679,7 +28819,7 @@
         <v>59.189200677174021</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -28732,7 +28872,7 @@
         <v>59.18918390673042</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -28779,7 +28919,7 @@
         <v>59.189171475032417</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -28826,7 +28966,7 @@
         <v>59.189162259474529</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -28873,7 +29013,7 @@
         <v>59.18915542796428</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -28920,7 +29060,7 @@
         <v>59.189150363719172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -28967,7 +29107,7 @@
         <v>59.189146609541176</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -29014,7 +29154,7 @@
         <v>59.189143826519455</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -29061,7 +29201,7 @@
         <v>59.189141763423095</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -29108,7 +29248,7 @@
         <v>59.189140234015269</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -29155,7 +29295,7 @@
         <v>59.189139100237988</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -29202,7 +29342,7 @@
         <v>59.18913825974775</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -29249,7 +29389,7 @@
         <v>59.189137636676158</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -29296,7 +29436,7 @@
         <v>59.189137174780903</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -29343,7 +29483,7 @@
         <v>59.189136832368696</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -29390,7 +29530,7 @@
         <v>59.189136578531574</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -29437,7 +29577,7 @@
         <v>59.189136390356921</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -29484,7 +29624,7 @@
         <v>59.189136250859178</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -29531,7 +29671,7 @@
         <v>59.189136147446611</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -29578,7 +29718,7 @@
         <v>59.18913607078472</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -29625,7 +29765,7 @@
         <v>59.189136013953664</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -29672,7 +29812,7 @@
         <v>59.189135971823617</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -29719,7 +29859,7 @@
         <v>59.189135940591733</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -29766,7 +29906,7 @@
         <v>59.189135917438882</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -29813,7 +29953,7 @@
         <v>59.18913590027519</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -29860,7 +30000,7 @@
         <v>59.189135887551387</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -29907,7 +30047,7 @@
         <v>59.189135878118961</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -29954,7 +30094,7 @@
         <v>59.18913587112651</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -30001,7 +30141,7 @@
         <v>59.189135865942852</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -30048,7 +30188,7 @@
         <v>59.189135862100102</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -30095,7 +30235,7 @@
         <v>59.189135859251394</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -30142,7 +30282,7 @@
         <v>59.189135857139583</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -30189,7 +30329,7 @@
         <v>59.189135855574051</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -30236,7 +30376,7 @@
         <v>59.189135854413493</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -30283,7 +30423,7 @@
         <v>59.189135853553147</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -30330,7 +30470,7 @@
         <v>59.189135852915356</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -30377,7 +30517,7 @@
         <v>59.189135852442547</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -30424,7 +30564,7 @@
         <v>59.189135852092043</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -30471,7 +30611,7 @@
         <v>59.189135851832205</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -30518,7 +30658,7 @@
         <v>59.189135851639584</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -30565,7 +30705,7 @@
         <v>59.189135851496786</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -30612,7 +30752,7 @@
         <v>59.18913585139093</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -30659,7 +30799,7 @@
         <v>59.189135851312457</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -30706,7 +30846,7 @@
         <v>59.189135851254285</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -30753,7 +30893,7 @@
         <v>59.189135851211155</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -30800,7 +30940,7 @@
         <v>59.189135851179188</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -30847,7 +30987,7 @@
         <v>59.189135851155491</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -30894,7 +31034,7 @@
         <v>59.18913585113792</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -30941,7 +31081,7 @@
         <v>59.189135851124895</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -30988,7 +31128,7 @@
         <v>59.189135851115239</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -31035,7 +31175,7 @@
         <v>59.189135851108084</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -31082,7 +31222,7 @@
         <v>59.189135851102776</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -31129,7 +31269,7 @@
         <v>59.18913585109884</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -31176,7 +31316,7 @@
         <v>59.189135851095926</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -31223,7 +31363,7 @@
         <v>59.189135851093766</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -31270,7 +31410,7 @@
         <v>59.189135851092161</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -31317,7 +31457,7 @@
         <v>59.189135851090974</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -31364,7 +31504,7 @@
         <v>59.189135851090093</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -31411,7 +31551,7 @@
         <v>59.189135851089439</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -31458,7 +31598,7 @@
         <v>59.189135851088956</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -31505,7 +31645,7 @@
         <v>59.189135851088601</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -31552,7 +31692,7 @@
         <v>59.189135851088331</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -31599,7 +31739,7 @@
         <v>59.189135851088132</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -31646,7 +31786,7 @@
         <v>59.18913585108799</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -31693,7 +31833,7 @@
         <v>59.189135851087883</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -31740,7 +31880,7 @@
         <v>59.189135851087798</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -31787,7 +31927,7 @@
         <v>59.189135851087741</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -31834,7 +31974,7 @@
         <v>59.189135851087698</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -31881,7 +32021,7 @@
         <v>59.189135851087663</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -31928,7 +32068,7 @@
         <v>59.189135851087642</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -31975,7 +32115,7 @@
         <v>59.18913585108762</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -32022,7 +32162,7 @@
         <v>59.189135851087606</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -32069,7 +32209,7 @@
         <v>59.189135851087599</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -32116,7 +32256,7 @@
         <v>59.189135851087592</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -32163,7 +32303,7 @@
         <v>59.189135851087585</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -32192,7 +32332,7 @@
         <v>0.48144433532983555</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -32225,22 +32365,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32285,7 +32425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32341,7 +32481,7 @@
         <v>59.341892953607847</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32398,7 +32538,7 @@
         <v>59.291363329035967</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32453,7 +32593,7 @@
         <v>59.260694770177423</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32499,7 +32639,7 @@
         <v>59.24028657591154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32545,7 +32685,7 @@
         <v>59.226137393324848</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32591,7 +32731,7 @@
         <v>59.216103095635944</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32637,7 +32777,7 @@
         <v>59.208887612663268</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -32683,7 +32823,7 @@
         <v>59.203651994325163</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -32732,7 +32872,7 @@
         <v>59.199829656507639</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -32784,7 +32924,7 @@
         <v>59.197027200635844</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -32836,7 +32976,7 @@
         <v>59.194966299028486</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -32889,7 +33029,7 @@
         <v>59.193447451876629</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -32942,7 +33082,7 @@
         <v>59.192326337965227</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -32995,7 +33135,7 @@
         <v>59.191497862309035</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -33047,7 +33187,7 @@
         <v>59.190885129064014</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -33100,7 +33240,7 @@
         <v>59.19043167982435</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -33146,7 +33286,7 @@
         <v>59.190095956618308</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -33192,7 +33332,7 @@
         <v>59.189847312509109</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -33238,7 +33378,7 @@
         <v>59.189663115990797</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -33284,7 +33424,7 @@
         <v>59.189526637776837</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -33333,7 +33473,7 @@
         <v>59.189425502320148</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -33385,7 +33525,7 @@
         <v>59.189350549733852</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -33437,7 +33577,7 @@
         <v>59.189294997477873</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -33489,7 +33629,7 @@
         <v>59.189253821833844</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -33541,7 +33681,7 @@
         <v>59.189223300985411</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -33593,7 +33733,7 @@
         <v>59.189200677174021</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -33645,7 +33785,7 @@
         <v>59.18918390673042</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -33691,7 +33831,7 @@
         <v>59.189171475032417</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -33737,7 +33877,7 @@
         <v>59.189162259474529</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -33783,7 +33923,7 @@
         <v>59.18915542796428</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -33829,7 +33969,7 @@
         <v>59.189150363719172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -33875,7 +34015,7 @@
         <v>59.189146609541176</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -33921,7 +34061,7 @@
         <v>59.189143826519455</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -33967,7 +34107,7 @@
         <v>59.189141763423095</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -34013,7 +34153,7 @@
         <v>59.189140234015269</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -34059,7 +34199,7 @@
         <v>59.189139100237988</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -34105,7 +34245,7 @@
         <v>59.18913825974775</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -34151,7 +34291,7 @@
         <v>59.189137636676158</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -34197,7 +34337,7 @@
         <v>59.189137174780903</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -34243,7 +34383,7 @@
         <v>59.189136832368696</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -34289,7 +34429,7 @@
         <v>59.189136578531574</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -34335,7 +34475,7 @@
         <v>59.189136390356921</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -34381,7 +34521,7 @@
         <v>59.189136250859178</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -34427,7 +34567,7 @@
         <v>59.189136147446611</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -34473,7 +34613,7 @@
         <v>59.18913607078472</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -34519,7 +34659,7 @@
         <v>59.189136013953664</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -34565,7 +34705,7 @@
         <v>59.189135971823617</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -34611,7 +34751,7 @@
         <v>59.189135940591733</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -34657,7 +34797,7 @@
         <v>59.189135917438882</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -34703,7 +34843,7 @@
         <v>59.18913590027519</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -34749,7 +34889,7 @@
         <v>59.189135887551387</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -34795,7 +34935,7 @@
         <v>59.189135878118961</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -34841,7 +34981,7 @@
         <v>59.18913587112651</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -34887,7 +35027,7 @@
         <v>59.189135865942852</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -34933,7 +35073,7 @@
         <v>59.189135862100102</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -34979,7 +35119,7 @@
         <v>59.189135859251394</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -35025,7 +35165,7 @@
         <v>59.189135857139583</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -35071,7 +35211,7 @@
         <v>59.189135855574051</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -35117,7 +35257,7 @@
         <v>59.189135854413493</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -35163,7 +35303,7 @@
         <v>59.189135853553147</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -35209,7 +35349,7 @@
         <v>59.189135852915356</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -35255,7 +35395,7 @@
         <v>59.189135852442547</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -35301,7 +35441,7 @@
         <v>59.189135852092043</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -35347,7 +35487,7 @@
         <v>59.189135851832205</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -35393,7 +35533,7 @@
         <v>59.189135851639584</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -35439,7 +35579,7 @@
         <v>59.189135851496786</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -35485,7 +35625,7 @@
         <v>59.18913585139093</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -35531,7 +35671,7 @@
         <v>59.189135851312457</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -35577,7 +35717,7 @@
         <v>59.189135851254285</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -35623,7 +35763,7 @@
         <v>59.189135851211155</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -35669,7 +35809,7 @@
         <v>59.189135851179188</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -35715,7 +35855,7 @@
         <v>59.189135851155491</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -35761,7 +35901,7 @@
         <v>59.18913585113792</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -35807,7 +35947,7 @@
         <v>59.189135851124895</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -35853,7 +35993,7 @@
         <v>59.189135851115239</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -35899,7 +36039,7 @@
         <v>59.189135851108084</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -35945,7 +36085,7 @@
         <v>59.189135851102776</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -35991,7 +36131,7 @@
         <v>59.18913585109884</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -36037,7 +36177,7 @@
         <v>59.189135851095926</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -36083,7 +36223,7 @@
         <v>59.189135851093766</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -36129,7 +36269,7 @@
         <v>59.189135851092161</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -36175,7 +36315,7 @@
         <v>59.189135851090974</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -36221,7 +36361,7 @@
         <v>59.189135851090093</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -36267,7 +36407,7 @@
         <v>59.189135851089439</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -36313,7 +36453,7 @@
         <v>59.189135851088956</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -36359,7 +36499,7 @@
         <v>59.189135851088601</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -36405,7 +36545,7 @@
         <v>59.189135851088331</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -36451,7 +36591,7 @@
         <v>59.189135851088132</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -36497,7 +36637,7 @@
         <v>59.18913585108799</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -36543,7 +36683,7 @@
         <v>59.189135851087883</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -36589,7 +36729,7 @@
         <v>59.189135851087798</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -36635,7 +36775,7 @@
         <v>59.189135851087741</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -36681,7 +36821,7 @@
         <v>59.189135851087698</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -36727,7 +36867,7 @@
         <v>59.189135851087663</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -36773,7 +36913,7 @@
         <v>59.189135851087642</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -36819,7 +36959,7 @@
         <v>59.18913585108762</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -36865,7 +37005,7 @@
         <v>59.189135851087606</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -36911,7 +37051,7 @@
         <v>59.189135851087599</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -36957,7 +37097,7 @@
         <v>59.189135851087592</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -37003,7 +37143,7 @@
         <v>59.189135851087585</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -37032,7 +37172,7 @@
         <v>0.48144433532983555</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -37065,19 +37205,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37118,7 +37258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37164,7 +37304,7 @@
         <v>59.536402000000024</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37210,7 +37350,7 @@
         <v>0.29799238990350757</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37234,7 +37374,7 @@
         <v>0.3629449338398329</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37279,7 +37419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37324,7 +37464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37348,7 +37488,7 @@
         <v>0.38333715316937383</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37399,7 +37539,7 @@
         <v>1.6778951977998637</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37450,7 +37590,7 @@
         <v>1.63717603713963</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37474,7 +37614,7 @@
         <v>0.46228998799454835</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37509,7 +37649,7 @@
         <v>0.45470994047825808</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="K11:O11" si="3">SQRT(L3^2+(L2-60)^2)</f>
+        <f t="shared" ref="L11:O11" si="3">SQRT(L3^2+(L2-60)^2)</f>
         <v>0.33604825343866779</v>
       </c>
       <c r="M11">
@@ -37525,7 +37665,7 @@
         <v>0.55111030660329885</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37560,7 +37700,7 @@
         <v>1.0996020880346413</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="K12:O12" si="4">(L5-L6)/(6*L11)</f>
+        <f t="shared" ref="L12:O12" si="4">(L5-L6)/(6*L11)</f>
         <v>1.4878815613045733</v>
       </c>
       <c r="M12">
@@ -37576,7 +37716,7 @@
         <v>0.90725938892649094</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37627,7 +37767,7 @@
         <v>0.60483959261766063</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37651,7 +37791,7 @@
         <v>0.54103538978517818</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37698,7 +37838,7 @@
         <v>4.5184664043684819E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -37745,7 +37885,7 @@
         <v>1.2624614410617968E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -37792,7 +37932,7 @@
         <v>5.7809278454302783E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -37816,7 +37956,7 @@
         <v>0.55633754861594586</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -37840,7 +37980,7 @@
         <v>0.33031806187370299</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -37864,7 +38004,7 @@
         <v>0.51459326851407572</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -37888,7 +38028,7 @@
         <v>0.52420952204247329</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -37912,7 +38052,7 @@
         <v>0.43908602232364397</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -37936,7 +38076,7 @@
         <v>0.50930570682056753</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -37960,7 +38100,7 @@
         <v>0.47524166168382298</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -37984,7 +38124,7 @@
         <v>0.32833557985695</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38008,7 +38148,7 @@
         <v>0.52908893203317053</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38032,7 +38172,7 @@
         <v>0.43510962067047143</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38056,7 +38196,7 @@
         <v>0.4934775496413189</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38080,7 +38220,7 @@
         <v>0.43592636075373947</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38104,7 +38244,7 @@
         <v>0.55269587930434139</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38128,7 +38268,7 @@
         <v>0.38233535933784718</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38152,7 +38292,7 @@
         <v>0.43470205888631136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38176,7 +38316,7 @@
         <v>0.50719937105639157</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -38200,7 +38340,7 @@
         <v>0.49880555530186182</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38224,7 +38364,7 @@
         <v>0.31499596346619979</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -38248,7 +38388,7 @@
         <v>0.62454503280388063</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38272,7 +38412,7 @@
         <v>0.40362555295719404</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38296,7 +38436,7 @@
         <v>0.37533882959267462</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38320,7 +38460,7 @@
         <v>0.5621800405564038</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38344,7 +38484,7 @@
         <v>0.49990128825598945</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38368,7 +38508,7 @@
         <v>0.48270915363187311</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -38392,7 +38532,7 @@
         <v>0.51801360213801317</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -38416,7 +38556,7 @@
         <v>0.47569700125184589</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -38440,7 +38580,7 @@
         <v>0.44530952381461547</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -38464,7 +38604,7 @@
         <v>0.47409397486152577</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -38488,7 +38628,7 @@
         <v>0.44916693667276847</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -38512,7 +38652,7 @@
         <v>0.46803023086121337</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -38536,7 +38676,7 @@
         <v>0.60404282381301233</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -38560,7 +38700,7 @@
         <v>0.48547504055306345</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -38584,7 +38724,7 @@
         <v>0.41280551474029592</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -38608,7 +38748,7 @@
         <v>0.53520651808437403</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -38632,7 +38772,7 @@
         <v>0.50938939623828006</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -38656,7 +38796,7 @@
         <v>0.33553432760300544</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -38680,7 +38820,7 @@
         <v>0.60488829960580281</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -38704,7 +38844,7 @@
         <v>0.57550245264464384</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -38728,7 +38868,7 @@
         <v>0.39845114255075237</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -38752,7 +38892,7 @@
         <v>0.56920042427953177</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -38776,7 +38916,7 @@
         <v>0.51394780182427047</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -38800,7 +38940,7 @@
         <v>0.34109893432844413</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -38824,7 +38964,7 @@
         <v>0.57339924398275888</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -38848,7 +38988,7 @@
         <v>0.47824747777693555</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -38872,7 +39012,7 @@
         <v>0.38373739067232043</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -38896,7 +39036,7 @@
         <v>0.41710660867456745</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -38920,7 +39060,7 @@
         <v>0.51819379868925364</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -38944,7 +39084,7 @@
         <v>0.33042368559169527</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -38968,7 +39108,7 @@
         <v>0.56457442202069152</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -38992,7 +39132,7 @@
         <v>0.53295164133343442</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -39016,7 +39156,7 @@
         <v>0.43673963296224916</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -39040,7 +39180,7 @@
         <v>0.49429900566357671</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -39064,7 +39204,7 @@
         <v>0.48266050491002338</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -39088,7 +39228,7 @@
         <v>0.38249176723166045</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -39112,7 +39252,7 @@
         <v>0.57781446157049465</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -39136,7 +39276,7 @@
         <v>0.50985528829266968</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -39160,7 +39300,7 @@
         <v>0.46352142129571344</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -39184,7 +39324,7 @@
         <v>0.58710140350709539</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -39208,7 +39348,7 @@
         <v>0.49551346096751075</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -39232,7 +39372,7 @@
         <v>0.3806757058179579</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -39256,7 +39396,7 @@
         <v>0.42829080307660017</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -39280,7 +39420,7 @@
         <v>0.57170233338687793</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -39304,7 +39444,7 @@
         <v>0.49336557642381285</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -39328,7 +39468,7 @@
         <v>0.4304317100307552</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -39352,7 +39492,7 @@
         <v>0.53940643952403788</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -39376,7 +39516,7 @@
         <v>0.46413015739121977</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -39400,7 +39540,7 @@
         <v>0.41407627678967557</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -39424,7 +39564,7 @@
         <v>0.53894309996510736</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -39448,7 +39588,7 @@
         <v>0.40090678717128209</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -39472,7 +39612,7 @@
         <v>0.55609996583348142</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -39496,7 +39636,7 @@
         <v>0.57149906124157512</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -39520,7 +39660,7 @@
         <v>0.53825408312431811</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -39544,7 +39684,7 @@
         <v>0.4682017353662829</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -39568,7 +39708,7 @@
         <v>0.58737897902461622</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -39592,7 +39732,7 @@
         <v>0.48210553616402352</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -39616,7 +39756,7 @@
         <v>0.51425252746097472</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -39640,7 +39780,7 @@
         <v>0.47922528835611305</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -39664,7 +39804,7 @@
         <v>0.47388653177738826</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -39688,7 +39828,7 @@
         <v>0.44244297937700605</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -39712,7 +39852,7 @@
         <v>0.4796638562576927</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -39736,7 +39876,7 @@
         <v>0.44036154804887412</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -39760,7 +39900,7 @@
         <v>0.54027976734280891</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -39784,7 +39924,7 @@
         <v>0.46807077990406526</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -39815,19 +39955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -39877,7 +40017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -39901,7 +40041,7 @@
         <v>59.978840000000005</v>
       </c>
       <c r="H2">
-        <f>_xlfn.STDEV.S(B2:F2)</f>
+        <f t="shared" ref="H2:H33" si="0">_xlfn.STDEV.S(B2:F2)</f>
         <v>0.56550642171420185</v>
       </c>
       <c r="I2" s="4">
@@ -39931,7 +40071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -39951,35 +40091,35 @@
         <v>60.07</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G66" si="1">AVERAGE(B3:F3)</f>
         <v>60.503619999999998</v>
       </c>
       <c r="H3">
-        <f>_xlfn.STDEV.S(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>0.52367545961215511</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="1">($Q$1-$Q$2)/(6*H3)</f>
+        <f t="shared" ref="I3:I66" si="2">($Q$1-$Q$2)/(6*H3)</f>
         <v>0.95478982416000613</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J66" si="2">MIN((G3-$Q$2)/(3*H3),($Q$1-G3)/(3*H3))</f>
+        <f t="shared" ref="J3:J66" si="3">MIN((G3-$Q$2)/(3*H3),($Q$1-G3)/(3*H3))</f>
         <v>0.31595904861103052</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K66" si="3">($Q$1-$Q$2)/(6*M3)</f>
+        <f t="shared" ref="K3:K66" si="4">($Q$1-$Q$2)/(6*M3)</f>
         <v>0.68818767069379605</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L66" si="4">($Q$1-$Q$2)/(3*M3)</f>
+        <f t="shared" ref="L3:L66" si="5">($Q$1-$Q$2)/(3*M3)</f>
         <v>1.3763753413875921</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" ref="M3:M66" si="5">SQRT(H3^2+($T$1-G3)^2)</f>
+        <f t="shared" ref="M3:M66" si="6">SQRT(H3^2+($T$1-G3)^2)</f>
         <v>0.72654600088363286</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39999,35 +40139,35 @@
         <v>59.665199999999999</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>59.885799999999996</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>59.885799999999996</v>
-      </c>
-      <c r="H4">
-        <f>_xlfn.STDEV.S(B4:F4)</f>
         <v>0.3629449338398329</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3776194496233121</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0232957271801997</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3141039468256399</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6282078936512798</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38048740452214913</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -40047,35 +40187,35 @@
         <v>59.5017</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>60.031240000000004</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>60.031240000000004</v>
-      </c>
-      <c r="H5">
-        <f>_xlfn.STDEV.S(B5:F5)</f>
         <v>0.49925962985204214</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0014829361392135</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64679773947614694</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99952810304040851</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.999056206080817</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50023605987573339</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -40095,35 +40235,35 @@
         <v>60.169800000000002</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>60.448299999999996</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>60.448299999999996</v>
-      </c>
-      <c r="H6">
-        <f>_xlfn.STDEV.S(B6:F6)</f>
         <v>0.56149067668127817</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89048673604925688</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32752102151891899</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69589259300444806</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3917851860088961</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71850168406204606</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -40143,35 +40283,35 @@
         <v>60.032899999999998</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>60.285739999999997</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>60.285739999999997</v>
-      </c>
-      <c r="H7">
-        <f>_xlfn.STDEV.S(B7:F7)</f>
         <v>0.38333715316937383</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3043348286647285</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62108946314804858</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0457717510816669</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0915435021633337</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47811580249976915</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -40191,35 +40331,35 @@
         <v>59.642600000000002</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>59.674840000000003</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>59.674840000000003</v>
-      </c>
-      <c r="H8">
-        <f>_xlfn.STDEV.S(B8:F8)</f>
         <v>0.57741447678422531</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86592910310221682</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76499640684462056</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7545190938173324</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5090381876346648</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66267375351676527</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -40239,35 +40379,35 @@
         <v>59.7791</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>59.969880000000003</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>59.969880000000003</v>
-      </c>
-      <c r="H9">
-        <f>_xlfn.STDEV.S(B9:F9)</f>
         <v>0.50637738101143481</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98740587306902095</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67809769197723768</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98566375933821171</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9713275186764234</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50727237890506083</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -40287,35 +40427,35 @@
         <v>59.389200000000002</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>59.686040000000006</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>59.686040000000006</v>
-      </c>
-      <c r="H10">
-        <f>_xlfn.STDEV.S(B10:F10)</f>
         <v>0.46228998799454835</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0815722013990412</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94742840650018545</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89473802028814697</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7894760405762939</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.558822793558026</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -40335,35 +40475,35 @@
         <v>59.820999999999998</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>59.912999999999997</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>59.912999999999997</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.STDEV.S(B11:F11)</f>
         <v>0.50172804386440228</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9965558156743789</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72217078109203547</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9819033027417321</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9638066054834642</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5092151117160606</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -40383,35 +40523,35 @@
         <v>59.685299999999998</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>59.990379999999995</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>59.990379999999995</v>
-      </c>
-      <c r="H12">
-        <f>_xlfn.STDEV.S(B12:F12)</f>
         <v>0.50385308573035525</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99235275948589241</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66793279535476802</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99217193398900216</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9843438679780043</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50394491405311437</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -40431,35 +40571,35 @@
         <v>59.433599999999998</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>59.665120000000002</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>59.665120000000002</v>
-      </c>
-      <c r="H13">
-        <f>_xlfn.STDEV.S(B13:F13)</f>
         <v>0.34699007478600874</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4409634059658727</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2823421542371478</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0368475103916057</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0736950207832114</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48223098863511332</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -40479,35 +40619,35 @@
         <v>59.708500000000001</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>59.928639999999994</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>59.928639999999994</v>
-      </c>
-      <c r="H14">
-        <f>_xlfn.STDEV.S(B14:F14)</f>
         <v>0.54103538978517818</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92415396375185077</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6600677270701254</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91621888942244878</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8324377788448976</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54572112163631759</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -40527,35 +40667,35 @@
         <v>59.767600000000002</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>60.274180000000001</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>60.274180000000001</v>
-      </c>
-      <c r="H15">
-        <f>_xlfn.STDEV.S(B15:F15)</f>
         <v>0.49339696188768489</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.013382810642069</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4903556744134836</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88580216127381184</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7716043225476237</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56446012649256128</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -40575,35 +40715,35 @@
         <v>59.632399999999997</v>
       </c>
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>59.694500000000005</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>59.694500000000005</v>
-      </c>
-      <c r="H16">
-        <f>_xlfn.STDEV.S(B16:F16)</f>
         <v>0.41000178658147346</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2195068811014622</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0613774888519685</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97789194404020074</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9557838880804015</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51130393603022173</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -40623,35 +40763,35 @@
         <v>60.035200000000003</v>
       </c>
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>59.913120000000006</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>59.913120000000006</v>
-      </c>
-      <c r="H17">
-        <f>_xlfn.STDEV.S(B17:F17)</f>
         <v>0.56106406229591876</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89116383244002517</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64572543080160594</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88066800559643921</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7613360111928784</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5677508400698299</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -40671,35 +40811,35 @@
         <v>59.721499999999999</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>60.211059999999996</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>60.211059999999996</v>
-      </c>
-      <c r="H18">
-        <f>_xlfn.STDEV.S(B18:F18)</f>
         <v>0.55633754861594586</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89873495190805985</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47269863530556538</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84029721904914567</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6805944380982913</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59502755532832119</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -40719,35 +40859,35 @@
         <v>60.027500000000003</v>
       </c>
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>60.251019999999997</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v>60.251019999999997</v>
-      </c>
-      <c r="H19">
-        <f>_xlfn.STDEV.S(B19:F19)</f>
         <v>0.33031806187370299</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5136925821246032</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75581698010646003</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2051829953054036</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4103659906108073</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41487475507675559</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -40767,35 +40907,35 @@
         <v>59.435400000000001</v>
       </c>
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>59.686320000000002</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
-        <v>59.686320000000002</v>
-      </c>
-      <c r="H20">
-        <f>_xlfn.STDEV.S(B20:F20)</f>
         <v>0.51459326851407572</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97164115932527684</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85095037212161839</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82965256974031221</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6593051394806244</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60266190720834378</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -40815,35 +40955,35 @@
         <v>60.111800000000002</v>
       </c>
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>60.249260000000007</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>60.249260000000007</v>
-      </c>
-      <c r="H21">
-        <f>_xlfn.STDEV.S(B21:F21)</f>
         <v>0.52420952204247329</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95381708835019641</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47737909393868005</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86139556490985703</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7227911298197141</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58045341811380669</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -40863,35 +41003,35 @@
         <v>59.671300000000002</v>
       </c>
       <c r="G22">
+        <f t="shared" si="1"/>
+        <v>59.923400000000001</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>59.923400000000001</v>
-      </c>
-      <c r="H22">
-        <f>_xlfn.STDEV.S(B22:F22)</f>
         <v>0.43908602232364397</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1387290293460017</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81730378199593634</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1217867673227029</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2435735346454058</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44571750582627945</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -40911,35 +41051,35 @@
         <v>59.579500000000003</v>
       </c>
       <c r="G23">
+        <f t="shared" si="1"/>
+        <v>60.117360000000005</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>60.117360000000005</v>
-      </c>
-      <c r="H23">
-        <f>_xlfn.STDEV.S(B23:F23)</f>
         <v>0.50930570682056753</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9817286421574577</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57767531247590231</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95665851838604954</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9133170367720991</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5226525352468876</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -40959,35 +41099,35 @@
         <v>59.717300000000002</v>
       </c>
       <c r="G24">
+        <f t="shared" si="1"/>
+        <v>59.979220000000012</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
-        <v>59.979220000000012</v>
-      </c>
-      <c r="H24">
-        <f>_xlfn.STDEV.S(B24:F24)</f>
         <v>0.47524166168382298</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0520963129125844</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71597258286326337</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0510920084748878</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1021840169497756</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47569574877225962</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -41007,35 +41147,35 @@
         <v>59.584899999999998</v>
       </c>
       <c r="G25">
+        <f t="shared" si="1"/>
+        <v>59.842139999999993</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>59.842139999999993</v>
-      </c>
-      <c r="H25">
-        <f>_xlfn.STDEV.S(B25:F25)</f>
         <v>0.32833557985695</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5228322200653404</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1754843428832433</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3724458555113017</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7448917110226034</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3643130969372384</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -41055,35 +41195,35 @@
         <v>59.581600000000002</v>
       </c>
       <c r="G26">
+        <f t="shared" si="1"/>
+        <v>59.881460000000004</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
-        <v>59.881460000000004</v>
-      </c>
-      <c r="H26">
-        <f>_xlfn.STDEV.S(B26:F26)</f>
         <v>0.52908893203317053</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94502071339616134</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70469564584142563</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92215954730469618</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8443190946093924</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54220552339495764</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -41103,35 +41243,35 @@
         <v>59.470599999999997</v>
       </c>
       <c r="G27">
+        <f t="shared" si="1"/>
+        <v>59.765180000000001</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
-        <v>59.765180000000001</v>
-      </c>
-      <c r="H27">
-        <f>_xlfn.STDEV.S(B27:F27)</f>
         <v>0.43510962067047143</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1491357033878895</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94598383283828857</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.011265933033245</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0225318660664899</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49442978712856805</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -41151,35 +41291,35 @@
         <v>59.7498</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>60.166119999999999</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>60.166119999999999</v>
-      </c>
-      <c r="H28">
-        <f>_xlfn.STDEV.S(B28:F28)</f>
         <v>0.4934775496413189</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.013217319335848</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56326777216518498</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96026803630533175</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9205360726106635</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52068795492117936</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -41199,35 +41339,35 @@
         <v>59.999400000000001</v>
       </c>
       <c r="G29">
+        <f t="shared" si="1"/>
+        <v>59.999319999999997</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
-        <v>59.999319999999997</v>
-      </c>
-      <c r="H29">
-        <f>_xlfn.STDEV.S(B29:F29)</f>
         <v>0.43592636075373947</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1469827131708068</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76517510761051077</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1469813177099919</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2939626354199838</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43592689111822341</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -41247,35 +41387,35 @@
         <v>59.313800000000001</v>
       </c>
       <c r="G30">
+        <f t="shared" si="1"/>
+        <v>59.581100000000006</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>59.581100000000006</v>
-      </c>
-      <c r="H30">
-        <f>_xlfn.STDEV.S(B30:F30)</f>
         <v>0.55269587930434139</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90465664522292466</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85574487593786808</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72097476580750897</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4419495316150179</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69350554792300956</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -41295,35 +41435,35 @@
         <v>59.7271</v>
       </c>
       <c r="G31">
+        <f t="shared" si="1"/>
+        <v>59.950019999999995</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>59.950019999999995</v>
-      </c>
-      <c r="H31">
-        <f>_xlfn.STDEV.S(B31:F31)</f>
         <v>0.38233535933784718</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3077524424262823</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91540927299916963</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2967198857049038</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5934397714098076</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38558828742585172</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -41343,35 +41483,35 @@
         <v>59.509300000000003</v>
       </c>
       <c r="G32">
+        <f t="shared" si="1"/>
+        <v>59.659400000000005</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
-        <v>59.659400000000005</v>
-      </c>
-      <c r="H32">
-        <f>_xlfn.STDEV.S(B32:F32)</f>
         <v>0.43470205888631136</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1502130937244217</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0279837822979694</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90539569564748823</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8107913912949765</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55224472835871841</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -41391,35 +41531,35 @@
         <v>59.355400000000003</v>
       </c>
       <c r="G33">
+        <f t="shared" si="1"/>
+        <v>59.719720000000009</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
-        <v>59.719720000000009</v>
-      </c>
-      <c r="H33">
-        <f>_xlfn.STDEV.S(B33:F33)</f>
         <v>0.50719937105639157</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98580563883311456</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84140482885683376</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86282840354575874</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7256568070915175</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.579489499818585</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -41439,35 +41579,35 @@
         <v>59.789499999999997</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.99351999999999</v>
       </c>
       <c r="H34">
-        <f>_xlfn.STDEV.S(B34:F34)</f>
+        <f t="shared" ref="H34:H65" si="7">_xlfn.STDEV.S(B34:F34)</f>
         <v>0.49880555530186182</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0023946098543657</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67259341795082161</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0023100350097109</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0046200700194219</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4988476444767469</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -41487,35 +41627,35 @@
         <v>59.582299999999996</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.521919999999987</v>
       </c>
       <c r="H35">
-        <f>_xlfn.STDEV.S(B35:F35)</f>
+        <f t="shared" si="7"/>
         <v>0.31499596346619979</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5873219278686148</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5641258634293749</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.87332688302786177</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7466537660557235</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57252331253846045</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -41535,35 +41675,35 @@
         <v>59.104100000000003</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.543759999999999</v>
       </c>
       <c r="H36">
-        <f>_xlfn.STDEV.S(B36:F36)</f>
+        <f t="shared" si="7"/>
         <v>0.62454503280388063</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80058278224591983</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77722711387853272</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64646147514816521</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2929229502963304</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77344129421695695</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -41583,35 +41723,35 @@
         <v>59.851900000000001</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.14958</v>
       </c>
       <c r="H37">
-        <f>_xlfn.STDEV.S(B37:F37)</f>
+        <f t="shared" si="7"/>
         <v>0.40362555295719404</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2387719170322868</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70231760912173136</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1615733376783188</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3231466753566377</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43045065152697903</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -41631,35 +41771,35 @@
         <v>59.3309</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.404119999999999</v>
       </c>
       <c r="H38">
-        <f>_xlfn.STDEV.S(B38:F38)</f>
+        <f t="shared" si="7"/>
         <v>0.37533882959267462</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3321296934362221</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2469799634317777</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70998649651647283</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4199729930329457</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70423874602296632</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -41679,35 +41819,35 @@
         <v>59.295400000000001</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.440039999999996</v>
       </c>
       <c r="H39">
-        <f>_xlfn.STDEV.S(B39:F39)</f>
+        <f t="shared" si="7"/>
         <v>0.5621800405564038</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88939479157804557</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85384271710936355</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63014006434536651</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.260280128690733</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79347438496778466</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -41727,35 +41867,35 @@
         <v>59.509799999999998</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.890740000000008</v>
       </c>
       <c r="H40">
-        <f>_xlfn.STDEV.S(B40:F40)</f>
+        <f t="shared" si="7"/>
         <v>0.49990128825598945</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001974624717511</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7396526914809376</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97713101790339152</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.954262035806783</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51170210630795343</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -41775,35 +41915,35 @@
         <v>59.549100000000003</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.85781999999999</v>
       </c>
       <c r="H41">
-        <f>_xlfn.STDEV.S(B41:F41)</f>
+        <f t="shared" si="7"/>
         <v>0.48270915363187311</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0358204236195474</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78872891429985692</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99361511608268172</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9872302321653634</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50321295631174101</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -41823,35 +41963,35 @@
         <v>59.435600000000001</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.565920000000006</v>
       </c>
       <c r="H42">
-        <f>_xlfn.STDEV.S(B42:F42)</f>
+        <f t="shared" si="7"/>
         <v>0.51801360213801317</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96522561943612073</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92280717088063113</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73981697175726402</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.479633943514528</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6758428355764341</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -41871,35 +42011,35 @@
         <v>59.849800000000002</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.074780000000011</v>
       </c>
       <c r="H43">
-        <f>_xlfn.STDEV.S(B43:F43)</f>
+        <f t="shared" si="7"/>
         <v>0.47569700125184589</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0510892410172827</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64832585838266565</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.038337772729339</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0766755454586781</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4815388721588324</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -41919,35 +42059,35 @@
         <v>59.543399999999998</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.62782</v>
       </c>
       <c r="H44">
-        <f>_xlfn.STDEV.S(B44:F44)</f>
+        <f t="shared" si="7"/>
         <v>0.44530952381461547</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1228145217216428</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0271357536106693</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8615332036455452</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7230664072910904</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58036068474699398</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -41967,35 +42107,35 @@
         <v>59.608699999999999</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.744219999999999</v>
       </c>
       <c r="H45">
-        <f>_xlfn.STDEV.S(B45:F45)</f>
+        <f t="shared" si="7"/>
         <v>0.47409397486152577</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0546432279508318</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8829332485307313</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9281750743505911</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8563501487011822</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.53869147515066707</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -42015,35 +42155,35 @@
         <v>59.597000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.945119999999996</v>
       </c>
       <c r="H46">
-        <f>_xlfn.STDEV.S(B46:F46)</f>
+        <f t="shared" si="7"/>
         <v>0.44916693667276847</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1131718725865722</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78284182996941876</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1049548336220971</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2099096672441942</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45250718381037808</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -42063,35 +42203,35 @@
         <v>59.774099999999997</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.613979999999991</v>
       </c>
       <c r="H47">
-        <f>_xlfn.STDEV.S(B47:F47)</f>
+        <f t="shared" si="7"/>
         <v>0.46803023086121337</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0683070601656643</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98712996768721584</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82415422330305199</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.648308446606104</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6066825672458438</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -42111,35 +42251,35 @@
         <v>59.1663</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.590459999999993</v>
       </c>
       <c r="H48">
-        <f>_xlfn.STDEV.S(B48:F48)</f>
+        <f t="shared" si="7"/>
         <v>0.60404282381301233</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82775588135251166</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77783668333441669</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68513033496395637</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3702606699279127</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72978815049300683</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -42159,35 +42299,35 @@
         <v>59.689700000000002</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.0471</v>
       </c>
       <c r="H49">
-        <f>_xlfn.STDEV.S(B49:F49)</f>
+        <f t="shared" si="7"/>
         <v>0.48547504055306345</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0299190653146439</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65427325155888261</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0251059265608602</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0502118531217204</v>
       </c>
       <c r="M49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48775447204510453</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -42207,35 +42347,35 @@
         <v>59.505099999999999</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.543660000000003</v>
       </c>
       <c r="H50">
-        <f>_xlfn.STDEV.S(B50:F50)</f>
+        <f t="shared" si="7"/>
         <v>0.41280551474029592</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2112241289086456</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1759694319298757</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81254681500566772</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6250936300113354</v>
       </c>
       <c r="M50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61534915990841998</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -42255,35 +42395,35 @@
         <v>59.180500000000002</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.505579999999995</v>
       </c>
       <c r="H51">
-        <f>_xlfn.STDEV.S(B51:F51)</f>
+        <f t="shared" si="7"/>
         <v>0.53520651808437403</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93421881667213968</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93074352267412253</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68622226660462837</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3724445332092567</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72862689588019225</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -42303,35 +42443,35 @@
         <v>60.153199999999998</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.456780000000002</v>
       </c>
       <c r="H52">
-        <f>_xlfn.STDEV.S(B52:F52)</f>
+        <f t="shared" si="7"/>
         <v>0.50938939623828006</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9815673504246093</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35547134406510289</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73078368514452241</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4615673702890448</v>
       </c>
       <c r="M52" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68419699312405724</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -42351,35 +42491,35 @@
         <v>59.856000000000002</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.879100000000008</v>
       </c>
       <c r="H53">
-        <f>_xlfn.STDEV.S(B53:F53)</f>
+        <f t="shared" si="7"/>
         <v>0.33553432760300544</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4901604958631403</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1135472665419879</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.401929861710808</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.803859723421616</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35665122318590048</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -42399,35 +42539,35 @@
         <v>59.8628</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.065899999999999</v>
       </c>
       <c r="H54">
-        <f>_xlfn.STDEV.S(B54:F54)</f>
+        <f t="shared" si="7"/>
         <v>0.60488829960580281</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8265988949130656</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51475068515886357</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82173661314514457</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6434732262902891</v>
       </c>
       <c r="M54" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60846747242560095</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -42447,35 +42587,35 @@
         <v>59.700699999999998</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.172939999999997</v>
       </c>
       <c r="H55">
-        <f>_xlfn.STDEV.S(B55:F55)</f>
+        <f t="shared" si="7"/>
         <v>0.57550245264464384</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86880602802354268</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47903647569143587</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83205005760043538</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6641001152008708</v>
       </c>
       <c r="M55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60092538355439729</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -42495,35 +42635,35 @@
         <v>59.6599</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.928939999999997</v>
       </c>
       <c r="H56">
-        <f>_xlfn.STDEV.S(B56:F56)</f>
+        <f t="shared" si="7"/>
         <v>0.39845114255075237</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2548589942525086</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89601951625606358</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2353671223871543</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4707342447743086</v>
       </c>
       <c r="M56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4047379851212391</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -42543,35 +42683,35 @@
         <v>59.257100000000001</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.785839999999993</v>
       </c>
       <c r="H57">
-        <f>_xlfn.STDEV.S(B57:F57)</f>
+        <f t="shared" si="7"/>
         <v>0.56920042427953177</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8784252060825104</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71103249881143116</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8221575747148907</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6443151494297814</v>
       </c>
       <c r="M57" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60815592457855894</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -42591,35 +42731,35 @@
         <v>60.087800000000001</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.296059999999997</v>
       </c>
       <c r="H58">
-        <f>_xlfn.STDEV.S(B58:F58)</f>
+        <f t="shared" si="7"/>
         <v>0.51394780182427047</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97286144278706432</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45655738935701928</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84299669629327945</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6859933925865589</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.59312213464007391</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -42639,35 +42779,35 @@
         <v>59.446100000000001</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.549040000000005</v>
       </c>
       <c r="H59">
-        <f>_xlfn.STDEV.S(B59:F59)</f>
+        <f t="shared" si="7"/>
         <v>0.34109893432844413</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4658503726621146</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4179268378118761</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88427955026537131</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7685591005307426</v>
       </c>
       <c r="M59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5654320512669897</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -42687,35 +42827,35 @@
         <v>59.2821</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.576840000000004</v>
       </c>
       <c r="H60">
-        <f>_xlfn.STDEV.S(B60:F60)</f>
+        <f t="shared" si="7"/>
         <v>0.57339924398275888</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87199277858663193</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82732349518223158</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70161976486672184</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4032395297334437</v>
       </c>
       <c r="M60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71263670870928053</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -42735,35 +42875,35 @@
         <v>59.414200000000001</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.925400000000003</v>
       </c>
       <c r="H61">
-        <f>_xlfn.STDEV.S(B61:F61)</f>
+        <f t="shared" si="7"/>
         <v>0.47824747777693555</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0454838200593923</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74898460869054639</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0329921271691551</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0659842543383102</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.484030794474897</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -42783,35 +42923,35 @@
         <v>59.811199999999999</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.8994</v>
       </c>
       <c r="H62">
-        <f>_xlfn.STDEV.S(B62:F62)</f>
+        <f t="shared" si="7"/>
         <v>0.38373739067232043</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3029744094626372</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95603575670305241</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2603828486128292</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5207656972256585</v>
       </c>
       <c r="M62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39670485880563783</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -42831,35 +42971,35 @@
         <v>59.288899999999998</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.583759999999998</v>
       </c>
       <c r="H63">
-        <f>_xlfn.STDEV.S(B63:F63)</f>
+        <f t="shared" si="7"/>
         <v>0.41710660867456745</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1987343034166766</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1317969799138909</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84851416143819602</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.697028322876392</v>
       </c>
       <c r="M63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58926535669424884</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -42879,35 +43019,35 @@
         <v>59.722900000000003</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.226159999999993</v>
       </c>
       <c r="H64">
-        <f>_xlfn.STDEV.S(B64:F64)</f>
+        <f t="shared" si="7"/>
         <v>0.51819379868925364</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96488997217783379</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49778030404673446</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88433521273461846</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7686704254692369</v>
       </c>
       <c r="M64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56539646143214906</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -42927,35 +43067,35 @@
         <v>59.401600000000002</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.649180000000001</v>
       </c>
       <c r="H65">
-        <f>_xlfn.STDEV.S(B65:F65)</f>
+        <f t="shared" si="7"/>
         <v>0.33042368559169527</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5132087129427225</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3627150624115245</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0374996294079253</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0749992588158506</v>
       </c>
       <c r="M65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48192788298665457</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -42975,35 +43115,35 @@
         <v>59.466999999999999</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.767539999999997</v>
       </c>
       <c r="H66">
-        <f>_xlfn.STDEV.S(B66:F66)</f>
+        <f t="shared" ref="H66:H101" si="8">_xlfn.STDEV.S(B66:F66)</f>
         <v>0.56457442202069152</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88562283464849412</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72766314586059067</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81892207527863392</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6378441505572678</v>
       </c>
       <c r="M66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6105587028288102</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -43023,35 +43163,35 @@
         <v>59.406300000000002</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" si="6">AVERAGE(B67:F67)</f>
+        <f t="shared" ref="G67:G101" si="9">AVERAGE(B67:F67)</f>
         <v>59.897580000000005</v>
       </c>
       <c r="H67">
-        <f>_xlfn.STDEV.S(B67:F67)</f>
+        <f t="shared" si="8"/>
         <v>0.53295164133343442</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ref="I67:I101" si="7">($Q$1-$Q$2)/(6*H67)</f>
+        <f t="shared" ref="I67:I101" si="10">($Q$1-$Q$2)/(6*H67)</f>
         <v>0.93817142348789839</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" ref="J67:J101" si="8">MIN((G67-$Q$2)/(3*H67),($Q$1-G67)/(3*H67))</f>
+        <f t="shared" ref="J67:J101" si="11">MIN((G67-$Q$2)/(3*H67),($Q$1-G67)/(3*H67))</f>
         <v>0.68950596045434953</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" ref="K67:K101" si="9">($Q$1-$Q$2)/(6*M67)</f>
+        <f t="shared" ref="K67:K101" si="12">($Q$1-$Q$2)/(6*M67)</f>
         <v>0.9213130442218852</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" ref="L67:L101" si="10">($Q$1-$Q$2)/(3*M67)</f>
+        <f t="shared" ref="L67:L101" si="13">($Q$1-$Q$2)/(3*M67)</f>
         <v>1.8426260884437704</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M101" si="11">SQRT(H67^2+($T$1-G67)^2)</f>
+        <f t="shared" ref="M67:M101" si="14">SQRT(H67^2+($T$1-G67)^2)</f>
         <v>0.54270370221696551</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -43071,35 +43211,35 @@
         <v>59.528199999999998</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.770520000000012</v>
       </c>
       <c r="H68">
-        <f>_xlfn.STDEV.S(B68:F68)</f>
+        <f t="shared" si="8"/>
         <v>0.43673963296224916</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1448468658744761</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.93837754977022481</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.013461880139751</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0269237602795021</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.4933584674453198</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -43119,35 +43259,35 @@
         <v>59.2136</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.57432</v>
       </c>
       <c r="H69">
-        <f>_xlfn.STDEV.S(B69:F69)</f>
+        <f t="shared" si="8"/>
         <v>0.49429900566357671</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0115334934343434</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.96141538061298293</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.76648273490170349</v>
       </c>
       <c r="L69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.532965469803407</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.65233041428405014</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -43167,35 +43307,35 @@
         <v>60.062899999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60.285960000000003</v>
       </c>
       <c r="H70">
-        <f>_xlfn.STDEV.S(B70:F70)</f>
+        <f t="shared" si="8"/>
         <v>0.48266050491002338</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0359248268992074</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.49312784226607137</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.891246787262161</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.782493574524322</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.56101183998200999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -43215,35 +43355,35 @@
         <v>59.748699999999999</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.775379999999998</v>
       </c>
       <c r="H71">
-        <f>_xlfn.STDEV.S(B71:F71)</f>
+        <f t="shared" si="8"/>
         <v>0.38249176723166045</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3072176784844869</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.067229942283783</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1272185128601182</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.2544370257202364</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.44356971988628735</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -43263,35 +43403,35 @@
         <v>59.274799999999999</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.765380000000007</v>
       </c>
       <c r="H72">
-        <f>_xlfn.STDEV.S(B72:F72)</f>
+        <f t="shared" si="8"/>
         <v>0.57781446157049465</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.86532967458274479</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.71223554855556126</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.80175567994364172</v>
       </c>
       <c r="L72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6035113598872834</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.62363137862041318</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -43311,35 +43451,35 @@
         <v>59.472299999999997</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60.142299999999999</v>
       </c>
       <c r="H73">
-        <f>_xlfn.STDEV.S(B73:F73)</f>
+        <f t="shared" si="8"/>
         <v>0.50985528829266968</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.98067042057037079</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.56074734648213875</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94457102109832236</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.8891420421966447</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.52934082121068371</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -43359,35 +43499,35 @@
         <v>59.950600000000001</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.901760000000003</v>
       </c>
       <c r="H74">
-        <f>_xlfn.STDEV.S(B74:F74)</f>
+        <f t="shared" si="8"/>
         <v>0.46352142129571344</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.078698798002292</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.7897801119453558</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0552581890773098</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.1105163781546197</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.4738176923670091</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -43407,35 +43547,35 @@
         <v>59.3352</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.651539999999997</v>
       </c>
       <c r="H75">
-        <f>_xlfn.STDEV.S(B75:F75)</f>
+        <f t="shared" si="8"/>
         <v>0.58710140350709539</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.85164163637356605</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.76560312065620084</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.73236007795085911</v>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4647201559017182</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.68272427055144547</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -43455,35 +43595,35 @@
         <v>60.028700000000001</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60.272800000000004</v>
       </c>
       <c r="H76">
-        <f>_xlfn.STDEV.S(B76:F76)</f>
+        <f t="shared" si="8"/>
         <v>0.49551346096751075</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0090543232140032</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.48918953589414627</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.8839477998376527</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7678955996753054</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.56564426099802589</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -43503,35 +43643,35 @@
         <v>59.1721</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.348339999999993</v>
       </c>
       <c r="H77">
-        <f>_xlfn.STDEV.S(B77:F77)</f>
+        <f t="shared" si="8"/>
         <v>0.3806757058179579</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3134539251083808</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1806549769204167</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.66251336037553155</v>
       </c>
       <c r="L77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3250267207510631</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.75470176136008138</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -43551,35 +43691,35 @@
         <v>59.451900000000002</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.75318</v>
       </c>
       <c r="H78">
-        <f>_xlfn.STDEV.S(B78:F78)</f>
+        <f t="shared" si="8"/>
         <v>0.42829080307660017</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1674310921651394</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.97038428955555911</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0114887483388184</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0229774966776368</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.49432087190406893</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -43599,35 +43739,35 @@
         <v>59.2316</v>
       </c>
       <c r="G79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.363260000000004</v>
       </c>
       <c r="H79">
-        <f>_xlfn.STDEV.S(B79:F79)</f>
+        <f t="shared" si="8"/>
         <v>0.57170233338687793</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.87458100273598827</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.7948541985265779</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.58429343544166357</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1685868708833271</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.85573441300440634</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -43647,35 +43787,35 @@
         <v>59.323</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.19838</v>
       </c>
       <c r="H80">
-        <f>_xlfn.STDEV.S(B80:F80)</f>
+        <f t="shared" si="8"/>
         <v>0.49336557642381285</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0134472770157115</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.80966329855339236</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.53119271463979101</v>
       </c>
       <c r="L80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.062385429279582</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.94127796978363443</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -43695,35 +43835,35 @@
         <v>59.591200000000001</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.808720000000008</v>
       </c>
       <c r="H81">
-        <f>_xlfn.STDEV.S(B81:F81)</f>
+        <f t="shared" si="8"/>
         <v>0.4304317100307552</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.161624453654388</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.92254665276625991</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0615268752057514</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.1230537504115028</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.47101963377336731</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -43743,35 +43883,35 @@
         <v>58.983600000000003</v>
       </c>
       <c r="G82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.304119999999998</v>
       </c>
       <c r="H82">
-        <f>_xlfn.STDEV.S(B82:F82)</f>
+        <f t="shared" si="8"/>
         <v>0.53940643952403788</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.92694481074640234</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.80589817772706396</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.56788552970042461</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1357710594008492</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.88045913102199291</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -43791,35 +43931,35 @@
         <v>59.224299999999999</v>
       </c>
       <c r="G83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.304739999999995</v>
       </c>
       <c r="H83">
-        <f>_xlfn.STDEV.S(B83:F83)</f>
+        <f t="shared" si="8"/>
         <v>0.46413015739121977</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0772840162130322</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.9370503648758578</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.59812580533219928</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1962516106643986</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.83594453799280544</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -43839,35 +43979,35 @@
         <v>59.450299999999999</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.621659999999999</v>
       </c>
       <c r="H84">
-        <f>_xlfn.STDEV.S(B84:F84)</f>
+        <f t="shared" si="8"/>
         <v>0.41407627678967557</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2075069933406695</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.10957012613412</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89143652651557526</v>
       </c>
       <c r="L84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7828730530311505</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.56089243050695659</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -43887,35 +44027,35 @@
         <v>59.290100000000002</v>
       </c>
       <c r="G85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.445999999999991</v>
       </c>
       <c r="H85">
-        <f>_xlfn.STDEV.S(B85:F85)</f>
+        <f t="shared" si="8"/>
         <v>0.53894309996510736</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.92774172270202804</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.89434302068474936</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6469135396375012</v>
       </c>
       <c r="L85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2938270792750024</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.77290081187692505</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -43935,35 +44075,35 @@
         <v>59.152500000000003</v>
       </c>
       <c r="G86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.268620000000013</v>
       </c>
       <c r="H86">
-        <f>_xlfn.STDEV.S(B86:F86)</f>
+        <f t="shared" si="8"/>
         <v>0.40090678717128209</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2471726994893246</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0547921533507754</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5994829120540015</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.198965824108003</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.83405213050503091</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -43983,35 +44123,35 @@
         <v>59.484499999999997</v>
       </c>
       <c r="G87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.789779999999993</v>
       </c>
       <c r="H87">
-        <f>_xlfn.STDEV.S(B87:F87)</f>
+        <f t="shared" si="8"/>
         <v>0.55609996583348142</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.89911891875519367</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.72542113190394442</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.84103174423861116</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6820634884772223</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.59450788085609263</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -44031,35 +44171,35 @@
         <v>59.031999999999996</v>
       </c>
       <c r="G88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.312280000000001</v>
       </c>
       <c r="H88">
-        <f>_xlfn.STDEV.S(B88:F88)</f>
+        <f t="shared" si="8"/>
         <v>0.57149906124157512</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.87489207578706385</v>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.7654022488092328</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.55916729938496057</v>
       </c>
       <c r="L88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1183345987699211</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.89418676762743476</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -44079,35 +44219,35 @@
         <v>59.6387</v>
       </c>
       <c r="G89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.539840000000005</v>
       </c>
       <c r="H89">
-        <f>_xlfn.STDEV.S(B89:F89)</f>
+        <f t="shared" si="8"/>
         <v>0.53825408312431811</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.92892932107031922</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.90425695830268837</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.70607336337244719</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4121467267448944</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.70814171152389804</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -44127,35 +44267,35 @@
         <v>59.213799999999999</v>
       </c>
       <c r="G90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.545100000000005</v>
       </c>
       <c r="H90">
-        <f>_xlfn.STDEV.S(B90:F90)</f>
+        <f t="shared" si="8"/>
         <v>0.4682017353662829</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0679157342482737</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0358070678385387</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.76593223976570457</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5318644795314091</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.65279926087580264</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -44175,35 +44315,35 @@
         <v>58.919600000000003</v>
       </c>
       <c r="G91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.166800000000002</v>
       </c>
       <c r="H91">
-        <f>_xlfn.STDEV.S(B91:F91)</f>
+        <f t="shared" si="8"/>
         <v>0.58737897902461622</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.85123917922681691</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.66215058288123441</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.49047045256722049</v>
       </c>
       <c r="L91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98094090513444099</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.019429401675269</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -44223,35 +44363,35 @@
         <v>59.3506</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.222760000000008</v>
       </c>
       <c r="H92">
-        <f>_xlfn.STDEV.S(B92:F92)</f>
+        <f t="shared" si="8"/>
         <v>0.48210553616402352</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0371173166322827</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84543038005686566</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.54667576848607324</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0933515369721465</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.91461891823862251</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -44271,35 +44411,35 @@
         <v>59.282299999999999</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.667680000000004</v>
       </c>
       <c r="H93">
-        <f>_xlfn.STDEV.S(B93:F93)</f>
+        <f t="shared" si="8"/>
         <v>0.51425252746097472</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.97228496370967032</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86359646856644257</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.81661391565391628</v>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6332278313078326</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.61228444729553411</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -44319,35 +44459,35 @@
         <v>59.001899999999999</v>
       </c>
       <c r="G94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.232379999999999</v>
       </c>
       <c r="H94">
-        <f>_xlfn.STDEV.S(B94:F94)</f>
+        <f t="shared" si="8"/>
         <v>0.47922528835611305</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0433506163982924</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.85720295509128452</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.55252924993695907</v>
       </c>
       <c r="L94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1050584998739181</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.90492946763822479</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -44367,35 +44507,35 @@
         <v>59.060699999999997</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.252200000000002</v>
       </c>
       <c r="H95">
-        <f>_xlfn.STDEV.S(B95:F95)</f>
+        <f t="shared" si="8"/>
         <v>0.47388653177738826</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0551048963655263</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.88080156748594285</v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.56477410514445037</v>
       </c>
       <c r="L95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1295482102889007</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.88530971134400116</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -44415,35 +44555,35 @@
         <v>59.180799999999998</v>
       </c>
       <c r="G96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.497299999999996</v>
       </c>
       <c r="H96">
-        <f>_xlfn.STDEV.S(B96:F96)</f>
+        <f t="shared" si="8"/>
         <v>0.44244297937700605</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1300891262960906</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1280549658687542</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.74663209836623456</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4932641967324691</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.66967386092037839</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -44463,35 +44603,35 @@
         <v>59.099400000000003</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.314800000000005</v>
       </c>
       <c r="H97">
-        <f>_xlfn.STDEV.S(B97:F97)</f>
+        <f t="shared" si="8"/>
         <v>0.4796638562576927</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0423966564855827</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.91369541596483306</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.59779518429038281</v>
       </c>
       <c r="L97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1955903685807656</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.83640687168386729</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44511,35 +44651,35 @@
         <v>59.1892</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.404340000000005</v>
       </c>
       <c r="H98">
-        <f>_xlfn.STDEV.S(B98:F98)</f>
+        <f t="shared" si="8"/>
         <v>0.44036154804887412</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1354306528700522</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0630204553676896</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.67498014343141632</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3499602868628326</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.74076253185484153</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -44559,35 +44699,35 @@
         <v>59.572699999999998</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.709320000000005</v>
       </c>
       <c r="H99">
-        <f>_xlfn.STDEV.S(B99:F99)</f>
+        <f t="shared" si="8"/>
         <v>0.54027976734280891</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.92544646352220084</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.79630349435921954</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.81497985931467276</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6299597186293455</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.61351209393132311</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -44607,35 +44747,35 @@
         <v>58.9452</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.301900000000003</v>
       </c>
       <c r="H100">
-        <f>_xlfn.STDEV.S(B100:F100)</f>
+        <f t="shared" si="8"/>
         <v>0.46807077990406526</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0682145125625635</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.92713898260347005</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.59488668600074501</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.18977337200149</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.84049620165708971</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -44655,31 +44795,31 @@
         <v>59.521599999999999</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.484939999999995</v>
       </c>
       <c r="H101">
-        <f>_xlfn.STDEV.S(B101:F101)</f>
+        <f t="shared" si="8"/>
         <v>0.48586739754793101</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0290873652428487</v>
       </c>
       <c r="J101" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0187553280958068</v>
       </c>
       <c r="K101" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.70615134692261661</v>
       </c>
       <c r="L101" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4123026938452332</v>
       </c>
       <c r="M101" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.70806350816858576</v>
       </c>
     </row>
